--- a/CodeReviews.xlsx
+++ b/CodeReviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\UNI\SoftwareEngineeringMethods\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1E7086-46BC-4328-9D28-7BAE93AECC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E87297-0292-4DD6-821B-5C076442E871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E65461F-EBF3-406E-B11D-5D797E018436}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Matric No</t>
   </si>
@@ -69,13 +69,19 @@
   </si>
   <si>
     <t>Nathan</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Product Owner/Scrum Master/Team Member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +101,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,11 +170,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -155,6 +179,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -471,121 +511,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D35F6-3404-4963-ABAB-AD4D11E22AF2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="2" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>40440969</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>40457604</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>25</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>40444835</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>25</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
     </row>

--- a/CodeReviews.xlsx
+++ b/CodeReviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\UNI\SoftwareEngineeringMethods\Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E87297-0292-4DD6-821B-5C076442E871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB9CB4-182D-4A31-B0A1-02FD590D3935}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E65461F-EBF3-406E-B11D-5D797E018436}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" xr2:uid="{1E65461F-EBF3-406E-B11D-5D797E018436}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Matric No</t>
   </si>
@@ -59,22 +57,28 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Louie</t>
-  </si>
-  <si>
-    <t>Dayle</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Product Owner/Scrum Master/Team Member</t>
+    <t>Aaron Morrison</t>
+  </si>
+  <si>
+    <t>Dale Angus</t>
+  </si>
+  <si>
+    <t>Lewis Mason</t>
+  </si>
+  <si>
+    <t>Nathan Nicol</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
   </si>
 </sst>
 </file>
@@ -514,7 +518,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -554,15 +558,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>40440969</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
@@ -572,9 +576,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>40457604</v>
@@ -590,13 +594,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <v>40455086</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
@@ -606,15 +612,15 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>40444835</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
